--- a/people.xlsx
+++ b/people.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
@@ -1448,6 +1448,101 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="B51" t="n">
+        <v>44</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>try again</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>33</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>agaaaiiiinnn</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>22</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>patrick</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>45</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>lloyd</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>25</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
@@ -1543,6 +1543,86 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>teppppppp</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>22</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>33</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>patrick</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>44</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>asdfasdfasdfasdfjklhasdfkjlashdf</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>44</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -433,13 +433,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.44140625" bestFit="1" customWidth="1" min="3" max="3"/>
@@ -1623,6 +1623,50 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>teppy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>permanent</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
@@ -1667,6 +1667,48 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>aayayy</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>55</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11310" yWindow="1890" windowWidth="16140" windowHeight="13365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -53,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,17 +436,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.44140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="16.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="16.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,19 +470,24 @@
           <t>Employment</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,15 +499,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,15 +519,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Alice Wong</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -531,35 +539,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alice Wong</t>
+          <t>Mark Lee</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mark Lee</t>
+          <t>Emily Chen</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -571,31 +579,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Emily Chen</t>
+          <t>David Kim</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>David Kim</t>
+          <t>Karen Wu</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -611,15 +619,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Karen Wu</t>
+          <t>Tom Brown</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -631,51 +639,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tom Brown</t>
+          <t>Lisa Park</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lisa Park</t>
+          <t>Michael Kim</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Michael Kim</t>
+          <t>Sarah Lee</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -691,55 +699,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sarah Lee</t>
+          <t>Eric Wang</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Eric Wang</t>
+          <t>Michelle Chu</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Michelle Chu</t>
+          <t>Jake Lee</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -751,15 +759,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jake Lee</t>
+          <t>Anna Kim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -771,11 +779,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anna Kim</t>
+          <t>Brian Yu</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -791,51 +799,51 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brian Yu</t>
+          <t>Mary Lee</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mary Lee</t>
+          <t>Peter Lee</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Peter Lee</t>
+          <t>Grace Lee</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -851,15 +859,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Grace Lee</t>
+          <t>Joshua Chen</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -871,15 +879,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joshua Chen</t>
+          <t>Amy Huang</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -891,15 +899,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amy Huang</t>
+          <t>Chris Chang</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -911,11 +919,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chris Chang</t>
+          <t>Tina Wu</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -931,55 +939,55 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tina Wu</t>
+          <t>Daniel Kim</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Daniel Kim</t>
+          <t>Lisa Lee</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lisa Lee</t>
+          <t>Samuel Choi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -991,15 +999,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Samuel Choi</t>
+          <t>Rachel Kim</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1011,11 +1019,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rachel Kim</t>
+          <t>Jason Han</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1031,15 +1039,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jason Han</t>
+          <t>Erica Park</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1051,15 +1059,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Erica Park</t>
+          <t>Danny Cho</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1071,15 +1079,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Danny Cho</t>
+          <t>Katie Kim</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1091,15 +1099,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Katie Kim</t>
+          <t>Oliver Lee</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1111,51 +1119,51 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Oliver Lee</t>
+          <t>Hannah Lee</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hannah Lee</t>
+          <t>Alex Kim</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Alex Kim</t>
+          <t>Cindy Lim</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1171,51 +1179,51 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cindy Lim</t>
+          <t>Timothy Lee</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Timothy Lee</t>
+          <t>Kelly Kim</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kelly Kim</t>
+          <t>David Lee</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1231,15 +1239,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>David Lee</t>
+          <t>Julie Kim</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1251,15 +1259,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Julie Kim</t>
+          <t>Steven Yoon</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1271,11 +1279,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Steven Yoon</t>
+          <t>Sophia Kim</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1291,15 +1299,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sophia Kim</t>
+          <t>Jason Lee</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1311,15 +1319,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jason Lee</t>
+          <t>Evelyn Kim</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1331,11 +1339,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Evelyn Kim</t>
+          <t>Ryan Park</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1351,15 +1359,15 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ryan Park</t>
+          <t>Megan Lee</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1371,11 +1379,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Megan Lee</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1391,27 +1399,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>jkihgjhf</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1419,58 +1427,58 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>44</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>try again</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>33</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>jkihgjhf</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>24</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="n">
-        <v>44</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Not Subscribed</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>try again</t>
+          <t>agaaaiiiinnn</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1479,38 +1487,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>agaaaiiiinnn</t>
+          <t>patrick</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>patrick</t>
+          <t>lloyd</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1519,18 +1527,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lloyd</t>
+          <t>teppppppp</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1546,11 +1554,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>teppppppp</t>
+          <t>asdf</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1559,22 +1567,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Employed</t>
+          <t>Unemployed</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>patrick</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>Not Subscribed</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1586,7 +1594,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>patrick</t>
+          <t>asdfasdfasdfasdfjklhasdfkjlashdf</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1594,7 +1602,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Not Subscribed</t>
+          <t>Subscribed</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1606,32 +1614,34 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>asdfasdfasdfasdfjklhasdfkjlashdf</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>44</v>
+          <t>teppy</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Subscribed</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Unemployed</t>
+          <t>Permanent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>teppy</t>
+          <t>another</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1641,74 +1651,53 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Permanent</t>
+          <t>permanent</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>another</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+          <t>aayayy</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>55</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>asdfasdf</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>permanent</t>
+          <t>asdfasdf</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>aayayy</t>
+          <t>new row</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>asdfasdf</t>
+          <t>owyeah</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>asdfasdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="64"/>
-    <row r="65"/>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11310" yWindow="1890" windowWidth="16140" windowHeight="13365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="with_formulas" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -55,10 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +439,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -452,7 +455,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Name  (unique)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -719,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Michelle Chu</t>
+          <t>Michelle Chua</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -734,6 +737,9 @@
         <is>
           <t>Employed</t>
         </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>45689</v>
       </c>
     </row>
     <row r="15">
@@ -1696,10 +1702,2981 @@
       </c>
       <c r="E62" s="2" t="n">
         <v>45718</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>dapat mag auto din ito</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>15</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45871</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C209"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sum_age</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sum_salary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <f>Sheet1!A2</f>
+        <v/>
+      </c>
+      <c r="B2">
+        <f>Sheet1!B2*2</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>B2*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>Sheet1!A3</f>
+        <v/>
+      </c>
+      <c r="B3">
+        <f>Sheet1!B3*2</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>B3*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>Sheet1!A4</f>
+        <v/>
+      </c>
+      <c r="B4">
+        <f>Sheet1!B4*2</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>B4*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f>Sheet1!A5</f>
+        <v/>
+      </c>
+      <c r="B5">
+        <f>Sheet1!B5*2</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>B5*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <f>Sheet1!A6</f>
+        <v/>
+      </c>
+      <c r="B6">
+        <f>Sheet1!B6*2</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>B6*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>Sheet1!A7</f>
+        <v/>
+      </c>
+      <c r="B7">
+        <f>Sheet1!B7*2</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>B7*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <f>Sheet1!A8</f>
+        <v/>
+      </c>
+      <c r="B8">
+        <f>Sheet1!B8*2</f>
+        <v/>
+      </c>
+      <c r="C8">
+        <f>B8*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <f>Sheet1!A9</f>
+        <v/>
+      </c>
+      <c r="B9">
+        <f>Sheet1!B9*2</f>
+        <v/>
+      </c>
+      <c r="C9">
+        <f>B9*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <f>Sheet1!A10</f>
+        <v/>
+      </c>
+      <c r="B10">
+        <f>Sheet1!B10*2</f>
+        <v/>
+      </c>
+      <c r="C10">
+        <f>B10*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <f>Sheet1!A11</f>
+        <v/>
+      </c>
+      <c r="B11">
+        <f>Sheet1!B11*2</f>
+        <v/>
+      </c>
+      <c r="C11">
+        <f>B11*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <f>Sheet1!A12</f>
+        <v/>
+      </c>
+      <c r="B12">
+        <f>Sheet1!B12*2</f>
+        <v/>
+      </c>
+      <c r="C12">
+        <f>B12*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <f>Sheet1!A13</f>
+        <v/>
+      </c>
+      <c r="B13">
+        <f>Sheet1!B13*2</f>
+        <v/>
+      </c>
+      <c r="C13">
+        <f>B13*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <f>Sheet1!A14</f>
+        <v/>
+      </c>
+      <c r="B14">
+        <f>Sheet1!B14*2</f>
+        <v/>
+      </c>
+      <c r="C14">
+        <f>B14*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <f>Sheet1!A15</f>
+        <v/>
+      </c>
+      <c r="B15">
+        <f>Sheet1!B15*2</f>
+        <v/>
+      </c>
+      <c r="C15">
+        <f>B15*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <f>Sheet1!A16</f>
+        <v/>
+      </c>
+      <c r="B16">
+        <f>Sheet1!B16*2</f>
+        <v/>
+      </c>
+      <c r="C16">
+        <f>B16*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <f>Sheet1!A17</f>
+        <v/>
+      </c>
+      <c r="B17">
+        <f>Sheet1!B17*2</f>
+        <v/>
+      </c>
+      <c r="C17">
+        <f>B17*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <f>Sheet1!A18</f>
+        <v/>
+      </c>
+      <c r="B18">
+        <f>Sheet1!B18*2</f>
+        <v/>
+      </c>
+      <c r="C18">
+        <f>B18*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <f>Sheet1!A19</f>
+        <v/>
+      </c>
+      <c r="B19">
+        <f>Sheet1!B19*2</f>
+        <v/>
+      </c>
+      <c r="C19">
+        <f>B19*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <f>Sheet1!A20</f>
+        <v/>
+      </c>
+      <c r="B20">
+        <f>Sheet1!B20*2</f>
+        <v/>
+      </c>
+      <c r="C20">
+        <f>B20*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <f>Sheet1!A21</f>
+        <v/>
+      </c>
+      <c r="B21">
+        <f>Sheet1!B21*2</f>
+        <v/>
+      </c>
+      <c r="C21">
+        <f>B21*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <f>Sheet1!A22</f>
+        <v/>
+      </c>
+      <c r="B22">
+        <f>Sheet1!B22*2</f>
+        <v/>
+      </c>
+      <c r="C22">
+        <f>B22*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <f>Sheet1!A23</f>
+        <v/>
+      </c>
+      <c r="B23">
+        <f>Sheet1!B23*2</f>
+        <v/>
+      </c>
+      <c r="C23">
+        <f>B23*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <f>Sheet1!A24</f>
+        <v/>
+      </c>
+      <c r="B24">
+        <f>Sheet1!B24*2</f>
+        <v/>
+      </c>
+      <c r="C24">
+        <f>B24*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <f>Sheet1!A25</f>
+        <v/>
+      </c>
+      <c r="B25">
+        <f>Sheet1!B25*2</f>
+        <v/>
+      </c>
+      <c r="C25">
+        <f>B25*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <f>Sheet1!A26</f>
+        <v/>
+      </c>
+      <c r="B26">
+        <f>Sheet1!B26*2</f>
+        <v/>
+      </c>
+      <c r="C26">
+        <f>B26*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <f>Sheet1!A27</f>
+        <v/>
+      </c>
+      <c r="B27">
+        <f>Sheet1!B27*2</f>
+        <v/>
+      </c>
+      <c r="C27">
+        <f>B27*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <f>Sheet1!A28</f>
+        <v/>
+      </c>
+      <c r="B28">
+        <f>Sheet1!B28*2</f>
+        <v/>
+      </c>
+      <c r="C28">
+        <f>B28*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <f>Sheet1!A29</f>
+        <v/>
+      </c>
+      <c r="B29">
+        <f>Sheet1!B29*2</f>
+        <v/>
+      </c>
+      <c r="C29">
+        <f>B29*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <f>Sheet1!A30</f>
+        <v/>
+      </c>
+      <c r="B30">
+        <f>Sheet1!B30*2</f>
+        <v/>
+      </c>
+      <c r="C30">
+        <f>B30*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <f>Sheet1!A31</f>
+        <v/>
+      </c>
+      <c r="B31">
+        <f>Sheet1!B31*2</f>
+        <v/>
+      </c>
+      <c r="C31">
+        <f>B31*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <f>Sheet1!A32</f>
+        <v/>
+      </c>
+      <c r="B32">
+        <f>Sheet1!B32*2</f>
+        <v/>
+      </c>
+      <c r="C32">
+        <f>B32*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <f>Sheet1!A33</f>
+        <v/>
+      </c>
+      <c r="B33">
+        <f>Sheet1!B33*2</f>
+        <v/>
+      </c>
+      <c r="C33">
+        <f>B33*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <f>Sheet1!A34</f>
+        <v/>
+      </c>
+      <c r="B34">
+        <f>Sheet1!B34*2</f>
+        <v/>
+      </c>
+      <c r="C34">
+        <f>B34*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <f>Sheet1!A35</f>
+        <v/>
+      </c>
+      <c r="B35">
+        <f>Sheet1!B35*2</f>
+        <v/>
+      </c>
+      <c r="C35">
+        <f>B35*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <f>Sheet1!A36</f>
+        <v/>
+      </c>
+      <c r="B36">
+        <f>Sheet1!B36*2</f>
+        <v/>
+      </c>
+      <c r="C36">
+        <f>B36*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <f>Sheet1!A37</f>
+        <v/>
+      </c>
+      <c r="B37">
+        <f>Sheet1!B37*2</f>
+        <v/>
+      </c>
+      <c r="C37">
+        <f>B37*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <f>Sheet1!A38</f>
+        <v/>
+      </c>
+      <c r="B38">
+        <f>Sheet1!B38*2</f>
+        <v/>
+      </c>
+      <c r="C38">
+        <f>B38*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <f>Sheet1!A39</f>
+        <v/>
+      </c>
+      <c r="B39">
+        <f>Sheet1!B39*2</f>
+        <v/>
+      </c>
+      <c r="C39">
+        <f>B39*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <f>Sheet1!A40</f>
+        <v/>
+      </c>
+      <c r="B40">
+        <f>Sheet1!B40*2</f>
+        <v/>
+      </c>
+      <c r="C40">
+        <f>B40*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <f>Sheet1!A41</f>
+        <v/>
+      </c>
+      <c r="B41">
+        <f>Sheet1!B41*2</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f>B41*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <f>Sheet1!A42</f>
+        <v/>
+      </c>
+      <c r="B42">
+        <f>Sheet1!B42*2</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <f>B42*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <f>Sheet1!A43</f>
+        <v/>
+      </c>
+      <c r="B43">
+        <f>Sheet1!B43*2</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <f>B43*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <f>Sheet1!A44</f>
+        <v/>
+      </c>
+      <c r="B44">
+        <f>Sheet1!B44*2</f>
+        <v/>
+      </c>
+      <c r="C44">
+        <f>B44*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <f>Sheet1!A45</f>
+        <v/>
+      </c>
+      <c r="B45">
+        <f>Sheet1!B45*2</f>
+        <v/>
+      </c>
+      <c r="C45">
+        <f>B45*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <f>Sheet1!A46</f>
+        <v/>
+      </c>
+      <c r="B46">
+        <f>Sheet1!B46*2</f>
+        <v/>
+      </c>
+      <c r="C46">
+        <f>B46*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <f>Sheet1!A47</f>
+        <v/>
+      </c>
+      <c r="B47">
+        <f>Sheet1!B47*2</f>
+        <v/>
+      </c>
+      <c r="C47">
+        <f>B47*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <f>Sheet1!A48</f>
+        <v/>
+      </c>
+      <c r="B48">
+        <f>Sheet1!B48*2</f>
+        <v/>
+      </c>
+      <c r="C48">
+        <f>B48*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <f>Sheet1!A49</f>
+        <v/>
+      </c>
+      <c r="B49">
+        <f>Sheet1!B49*2</f>
+        <v/>
+      </c>
+      <c r="C49">
+        <f>B49*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <f>Sheet1!A50</f>
+        <v/>
+      </c>
+      <c r="B50">
+        <f>Sheet1!B50*2</f>
+        <v/>
+      </c>
+      <c r="C50">
+        <f>B50*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <f>Sheet1!A51</f>
+        <v/>
+      </c>
+      <c r="B51">
+        <f>Sheet1!B51*2</f>
+        <v/>
+      </c>
+      <c r="C51">
+        <f>B51*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <f>Sheet1!A52</f>
+        <v/>
+      </c>
+      <c r="B52">
+        <f>Sheet1!B52*2</f>
+        <v/>
+      </c>
+      <c r="C52">
+        <f>B52*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <f>Sheet1!A53</f>
+        <v/>
+      </c>
+      <c r="B53">
+        <f>Sheet1!B53*2</f>
+        <v/>
+      </c>
+      <c r="C53">
+        <f>B53*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <f>Sheet1!A54</f>
+        <v/>
+      </c>
+      <c r="B54">
+        <f>Sheet1!B54*2</f>
+        <v/>
+      </c>
+      <c r="C54">
+        <f>B54*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <f>Sheet1!A55</f>
+        <v/>
+      </c>
+      <c r="B55">
+        <f>Sheet1!B55*2</f>
+        <v/>
+      </c>
+      <c r="C55">
+        <f>B55*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <f>Sheet1!A56</f>
+        <v/>
+      </c>
+      <c r="B56">
+        <f>Sheet1!B56*2</f>
+        <v/>
+      </c>
+      <c r="C56">
+        <f>B56*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <f>Sheet1!A57</f>
+        <v/>
+      </c>
+      <c r="B57">
+        <f>Sheet1!B57*2</f>
+        <v/>
+      </c>
+      <c r="C57">
+        <f>B57*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <f>Sheet1!A58</f>
+        <v/>
+      </c>
+      <c r="B58">
+        <f>Sheet1!B58*2</f>
+        <v/>
+      </c>
+      <c r="C58">
+        <f>B58*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <f>Sheet1!A59</f>
+        <v/>
+      </c>
+      <c r="B59">
+        <f>Sheet1!B59*2</f>
+        <v/>
+      </c>
+      <c r="C59">
+        <f>B59*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <f>Sheet1!A60</f>
+        <v/>
+      </c>
+      <c r="B60">
+        <f>Sheet1!B60*2</f>
+        <v/>
+      </c>
+      <c r="C60">
+        <f>B60*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <f>Sheet1!A61</f>
+        <v/>
+      </c>
+      <c r="B61">
+        <f>Sheet1!B61*2</f>
+        <v/>
+      </c>
+      <c r="C61">
+        <f>B61*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <f>Sheet1!A62</f>
+        <v/>
+      </c>
+      <c r="B62">
+        <f>Sheet1!B62*2</f>
+        <v/>
+      </c>
+      <c r="C62">
+        <f>B62*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <f>Sheet1!A63</f>
+        <v/>
+      </c>
+      <c r="B63">
+        <f>Sheet1!B63*2</f>
+        <v/>
+      </c>
+      <c r="C63">
+        <f>B63*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <f>Sheet1!A64</f>
+        <v/>
+      </c>
+      <c r="B64">
+        <f>Sheet1!B64*2</f>
+        <v/>
+      </c>
+      <c r="C64">
+        <f>B64*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <f>Sheet1!A65</f>
+        <v/>
+      </c>
+      <c r="B65">
+        <f>Sheet1!B65*2</f>
+        <v/>
+      </c>
+      <c r="C65">
+        <f>B65*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <f>Sheet1!A66</f>
+        <v/>
+      </c>
+      <c r="B66">
+        <f>Sheet1!B66*2</f>
+        <v/>
+      </c>
+      <c r="C66">
+        <f>B66*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <f>Sheet1!A67</f>
+        <v/>
+      </c>
+      <c r="B67">
+        <f>Sheet1!B67*2</f>
+        <v/>
+      </c>
+      <c r="C67">
+        <f>B67*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <f>Sheet1!A68</f>
+        <v/>
+      </c>
+      <c r="B68">
+        <f>Sheet1!B68*2</f>
+        <v/>
+      </c>
+      <c r="C68">
+        <f>B68*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <f>Sheet1!A69</f>
+        <v/>
+      </c>
+      <c r="B69">
+        <f>Sheet1!B69*2</f>
+        <v/>
+      </c>
+      <c r="C69">
+        <f>B69*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <f>Sheet1!A70</f>
+        <v/>
+      </c>
+      <c r="B70">
+        <f>Sheet1!B70*2</f>
+        <v/>
+      </c>
+      <c r="C70">
+        <f>B70*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <f>Sheet1!A71</f>
+        <v/>
+      </c>
+      <c r="B71">
+        <f>Sheet1!B71*2</f>
+        <v/>
+      </c>
+      <c r="C71">
+        <f>B71*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <f>Sheet1!A72</f>
+        <v/>
+      </c>
+      <c r="B72">
+        <f>Sheet1!B72*2</f>
+        <v/>
+      </c>
+      <c r="C72">
+        <f>B72*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <f>Sheet1!A73</f>
+        <v/>
+      </c>
+      <c r="B73">
+        <f>Sheet1!B73*2</f>
+        <v/>
+      </c>
+      <c r="C73">
+        <f>B73*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <f>Sheet1!A74</f>
+        <v/>
+      </c>
+      <c r="B74">
+        <f>Sheet1!B74*2</f>
+        <v/>
+      </c>
+      <c r="C74">
+        <f>B74*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <f>Sheet1!A75</f>
+        <v/>
+      </c>
+      <c r="B75">
+        <f>Sheet1!B75*2</f>
+        <v/>
+      </c>
+      <c r="C75">
+        <f>B75*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <f>Sheet1!A76</f>
+        <v/>
+      </c>
+      <c r="B76">
+        <f>Sheet1!B76*2</f>
+        <v/>
+      </c>
+      <c r="C76">
+        <f>B76*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <f>Sheet1!A77</f>
+        <v/>
+      </c>
+      <c r="B77">
+        <f>Sheet1!B77*2</f>
+        <v/>
+      </c>
+      <c r="C77">
+        <f>B77*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <f>Sheet1!A78</f>
+        <v/>
+      </c>
+      <c r="B78">
+        <f>Sheet1!B78*2</f>
+        <v/>
+      </c>
+      <c r="C78">
+        <f>B78*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <f>Sheet1!A79</f>
+        <v/>
+      </c>
+      <c r="B79">
+        <f>Sheet1!B79*2</f>
+        <v/>
+      </c>
+      <c r="C79">
+        <f>B79*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <f>Sheet1!A80</f>
+        <v/>
+      </c>
+      <c r="B80">
+        <f>Sheet1!B80*2</f>
+        <v/>
+      </c>
+      <c r="C80">
+        <f>B80*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <f>Sheet1!A81</f>
+        <v/>
+      </c>
+      <c r="B81">
+        <f>Sheet1!B81*2</f>
+        <v/>
+      </c>
+      <c r="C81">
+        <f>B81*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <f>Sheet1!A82</f>
+        <v/>
+      </c>
+      <c r="B82">
+        <f>Sheet1!B82*2</f>
+        <v/>
+      </c>
+      <c r="C82">
+        <f>B82*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <f>Sheet1!A83</f>
+        <v/>
+      </c>
+      <c r="B83">
+        <f>Sheet1!B83*2</f>
+        <v/>
+      </c>
+      <c r="C83">
+        <f>B83*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <f>Sheet1!A84</f>
+        <v/>
+      </c>
+      <c r="B84">
+        <f>Sheet1!B84*2</f>
+        <v/>
+      </c>
+      <c r="C84">
+        <f>B84*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <f>Sheet1!A85</f>
+        <v/>
+      </c>
+      <c r="B85">
+        <f>Sheet1!B85*2</f>
+        <v/>
+      </c>
+      <c r="C85">
+        <f>B85*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <f>Sheet1!A86</f>
+        <v/>
+      </c>
+      <c r="B86">
+        <f>Sheet1!B86*2</f>
+        <v/>
+      </c>
+      <c r="C86">
+        <f>B86*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <f>Sheet1!A87</f>
+        <v/>
+      </c>
+      <c r="B87">
+        <f>Sheet1!B87*2</f>
+        <v/>
+      </c>
+      <c r="C87">
+        <f>B87*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <f>Sheet1!A88</f>
+        <v/>
+      </c>
+      <c r="B88">
+        <f>Sheet1!B88*2</f>
+        <v/>
+      </c>
+      <c r="C88">
+        <f>B88*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <f>Sheet1!A89</f>
+        <v/>
+      </c>
+      <c r="B89">
+        <f>Sheet1!B89*2</f>
+        <v/>
+      </c>
+      <c r="C89">
+        <f>B89*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <f>Sheet1!A90</f>
+        <v/>
+      </c>
+      <c r="B90">
+        <f>Sheet1!B90*2</f>
+        <v/>
+      </c>
+      <c r="C90">
+        <f>B90*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <f>Sheet1!A91</f>
+        <v/>
+      </c>
+      <c r="B91">
+        <f>Sheet1!B91*2</f>
+        <v/>
+      </c>
+      <c r="C91">
+        <f>B91*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <f>Sheet1!A92</f>
+        <v/>
+      </c>
+      <c r="B92">
+        <f>Sheet1!B92*2</f>
+        <v/>
+      </c>
+      <c r="C92">
+        <f>B92*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <f>Sheet1!A93</f>
+        <v/>
+      </c>
+      <c r="B93">
+        <f>Sheet1!B93*2</f>
+        <v/>
+      </c>
+      <c r="C93">
+        <f>B93*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <f>Sheet1!A94</f>
+        <v/>
+      </c>
+      <c r="B94">
+        <f>Sheet1!B94*2</f>
+        <v/>
+      </c>
+      <c r="C94">
+        <f>B94*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <f>Sheet1!A95</f>
+        <v/>
+      </c>
+      <c r="B95">
+        <f>Sheet1!B95*2</f>
+        <v/>
+      </c>
+      <c r="C95">
+        <f>B95*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <f>Sheet1!A96</f>
+        <v/>
+      </c>
+      <c r="B96">
+        <f>Sheet1!B96*2</f>
+        <v/>
+      </c>
+      <c r="C96">
+        <f>B96*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <f>Sheet1!A97</f>
+        <v/>
+      </c>
+      <c r="B97">
+        <f>Sheet1!B97*2</f>
+        <v/>
+      </c>
+      <c r="C97">
+        <f>B97*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <f>Sheet1!A98</f>
+        <v/>
+      </c>
+      <c r="B98">
+        <f>Sheet1!B98*2</f>
+        <v/>
+      </c>
+      <c r="C98">
+        <f>B98*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <f>Sheet1!A99</f>
+        <v/>
+      </c>
+      <c r="B99">
+        <f>Sheet1!B99*2</f>
+        <v/>
+      </c>
+      <c r="C99">
+        <f>B99*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <f>Sheet1!A100</f>
+        <v/>
+      </c>
+      <c r="B100">
+        <f>Sheet1!B100*2</f>
+        <v/>
+      </c>
+      <c r="C100">
+        <f>B100*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <f>Sheet1!A101</f>
+        <v/>
+      </c>
+      <c r="B101">
+        <f>Sheet1!B101*2</f>
+        <v/>
+      </c>
+      <c r="C101">
+        <f>B101*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <f>Sheet1!A102</f>
+        <v/>
+      </c>
+      <c r="B102">
+        <f>Sheet1!B102*2</f>
+        <v/>
+      </c>
+      <c r="C102">
+        <f>B102*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <f>Sheet1!A103</f>
+        <v/>
+      </c>
+      <c r="B103">
+        <f>Sheet1!B103*2</f>
+        <v/>
+      </c>
+      <c r="C103">
+        <f>B103*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <f>Sheet1!A104</f>
+        <v/>
+      </c>
+      <c r="B104">
+        <f>Sheet1!B104*2</f>
+        <v/>
+      </c>
+      <c r="C104">
+        <f>B104*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <f>Sheet1!A105</f>
+        <v/>
+      </c>
+      <c r="B105">
+        <f>Sheet1!B105*2</f>
+        <v/>
+      </c>
+      <c r="C105">
+        <f>B105*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <f>Sheet1!A106</f>
+        <v/>
+      </c>
+      <c r="B106">
+        <f>Sheet1!B106*2</f>
+        <v/>
+      </c>
+      <c r="C106">
+        <f>B106*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <f>Sheet1!A107</f>
+        <v/>
+      </c>
+      <c r="B107">
+        <f>Sheet1!B107*2</f>
+        <v/>
+      </c>
+      <c r="C107">
+        <f>B107*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <f>Sheet1!A108</f>
+        <v/>
+      </c>
+      <c r="B108">
+        <f>Sheet1!B108*2</f>
+        <v/>
+      </c>
+      <c r="C108">
+        <f>B108*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <f>Sheet1!A109</f>
+        <v/>
+      </c>
+      <c r="B109">
+        <f>Sheet1!B109*2</f>
+        <v/>
+      </c>
+      <c r="C109">
+        <f>B109*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <f>Sheet1!A110</f>
+        <v/>
+      </c>
+      <c r="B110">
+        <f>Sheet1!B110*2</f>
+        <v/>
+      </c>
+      <c r="C110">
+        <f>B110*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <f>Sheet1!A111</f>
+        <v/>
+      </c>
+      <c r="B111">
+        <f>Sheet1!B111*2</f>
+        <v/>
+      </c>
+      <c r="C111">
+        <f>B111*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <f>Sheet1!A112</f>
+        <v/>
+      </c>
+      <c r="B112">
+        <f>Sheet1!B112*2</f>
+        <v/>
+      </c>
+      <c r="C112">
+        <f>B112*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <f>Sheet1!A113</f>
+        <v/>
+      </c>
+      <c r="B113">
+        <f>Sheet1!B113*2</f>
+        <v/>
+      </c>
+      <c r="C113">
+        <f>B113*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <f>Sheet1!A114</f>
+        <v/>
+      </c>
+      <c r="B114">
+        <f>Sheet1!B114*2</f>
+        <v/>
+      </c>
+      <c r="C114">
+        <f>B114*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <f>Sheet1!A115</f>
+        <v/>
+      </c>
+      <c r="B115">
+        <f>Sheet1!B115*2</f>
+        <v/>
+      </c>
+      <c r="C115">
+        <f>B115*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <f>Sheet1!A116</f>
+        <v/>
+      </c>
+      <c r="B116">
+        <f>Sheet1!B116*2</f>
+        <v/>
+      </c>
+      <c r="C116">
+        <f>B116*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <f>Sheet1!A117</f>
+        <v/>
+      </c>
+      <c r="B117">
+        <f>Sheet1!B117*2</f>
+        <v/>
+      </c>
+      <c r="C117">
+        <f>B117*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <f>Sheet1!A118</f>
+        <v/>
+      </c>
+      <c r="B118">
+        <f>Sheet1!B118*2</f>
+        <v/>
+      </c>
+      <c r="C118">
+        <f>B118*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <f>Sheet1!A119</f>
+        <v/>
+      </c>
+      <c r="B119">
+        <f>Sheet1!B119*2</f>
+        <v/>
+      </c>
+      <c r="C119">
+        <f>B119*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <f>Sheet1!A120</f>
+        <v/>
+      </c>
+      <c r="B120">
+        <f>Sheet1!B120*2</f>
+        <v/>
+      </c>
+      <c r="C120">
+        <f>B120*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <f>Sheet1!A121</f>
+        <v/>
+      </c>
+      <c r="B121">
+        <f>Sheet1!B121*2</f>
+        <v/>
+      </c>
+      <c r="C121">
+        <f>B121*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <f>Sheet1!A122</f>
+        <v/>
+      </c>
+      <c r="B122">
+        <f>Sheet1!B122*2</f>
+        <v/>
+      </c>
+      <c r="C122">
+        <f>B122*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <f>Sheet1!A123</f>
+        <v/>
+      </c>
+      <c r="B123">
+        <f>Sheet1!B123*2</f>
+        <v/>
+      </c>
+      <c r="C123">
+        <f>B123*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <f>Sheet1!A124</f>
+        <v/>
+      </c>
+      <c r="B124">
+        <f>Sheet1!B124*2</f>
+        <v/>
+      </c>
+      <c r="C124">
+        <f>B124*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <f>Sheet1!A125</f>
+        <v/>
+      </c>
+      <c r="B125">
+        <f>Sheet1!B125*2</f>
+        <v/>
+      </c>
+      <c r="C125">
+        <f>B125*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <f>Sheet1!A126</f>
+        <v/>
+      </c>
+      <c r="B126">
+        <f>Sheet1!B126*2</f>
+        <v/>
+      </c>
+      <c r="C126">
+        <f>B126*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <f>Sheet1!A127</f>
+        <v/>
+      </c>
+      <c r="B127">
+        <f>Sheet1!B127*2</f>
+        <v/>
+      </c>
+      <c r="C127">
+        <f>B127*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <f>Sheet1!A128</f>
+        <v/>
+      </c>
+      <c r="B128">
+        <f>Sheet1!B128*2</f>
+        <v/>
+      </c>
+      <c r="C128">
+        <f>B128*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <f>Sheet1!A129</f>
+        <v/>
+      </c>
+      <c r="B129">
+        <f>Sheet1!B129*2</f>
+        <v/>
+      </c>
+      <c r="C129">
+        <f>B129*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <f>Sheet1!A130</f>
+        <v/>
+      </c>
+      <c r="B130">
+        <f>Sheet1!B130*2</f>
+        <v/>
+      </c>
+      <c r="C130">
+        <f>B130*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <f>Sheet1!A131</f>
+        <v/>
+      </c>
+      <c r="B131">
+        <f>Sheet1!B131*2</f>
+        <v/>
+      </c>
+      <c r="C131">
+        <f>B131*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <f>Sheet1!A132</f>
+        <v/>
+      </c>
+      <c r="B132">
+        <f>Sheet1!B132*2</f>
+        <v/>
+      </c>
+      <c r="C132">
+        <f>B132*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <f>Sheet1!A133</f>
+        <v/>
+      </c>
+      <c r="B133">
+        <f>Sheet1!B133*2</f>
+        <v/>
+      </c>
+      <c r="C133">
+        <f>B133*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <f>Sheet1!A134</f>
+        <v/>
+      </c>
+      <c r="B134">
+        <f>Sheet1!B134*2</f>
+        <v/>
+      </c>
+      <c r="C134">
+        <f>B134*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <f>Sheet1!A135</f>
+        <v/>
+      </c>
+      <c r="B135">
+        <f>Sheet1!B135*2</f>
+        <v/>
+      </c>
+      <c r="C135">
+        <f>B135*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <f>Sheet1!A136</f>
+        <v/>
+      </c>
+      <c r="B136">
+        <f>Sheet1!B136*2</f>
+        <v/>
+      </c>
+      <c r="C136">
+        <f>B136*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <f>Sheet1!A137</f>
+        <v/>
+      </c>
+      <c r="B137">
+        <f>Sheet1!B137*2</f>
+        <v/>
+      </c>
+      <c r="C137">
+        <f>B137*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <f>Sheet1!A138</f>
+        <v/>
+      </c>
+      <c r="B138">
+        <f>Sheet1!B138*2</f>
+        <v/>
+      </c>
+      <c r="C138">
+        <f>B138*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <f>Sheet1!A139</f>
+        <v/>
+      </c>
+      <c r="B139">
+        <f>Sheet1!B139*2</f>
+        <v/>
+      </c>
+      <c r="C139">
+        <f>B139*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <f>Sheet1!A140</f>
+        <v/>
+      </c>
+      <c r="B140">
+        <f>Sheet1!B140*2</f>
+        <v/>
+      </c>
+      <c r="C140">
+        <f>B140*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <f>Sheet1!A141</f>
+        <v/>
+      </c>
+      <c r="B141">
+        <f>Sheet1!B141*2</f>
+        <v/>
+      </c>
+      <c r="C141">
+        <f>B141*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <f>Sheet1!A142</f>
+        <v/>
+      </c>
+      <c r="B142">
+        <f>Sheet1!B142*2</f>
+        <v/>
+      </c>
+      <c r="C142">
+        <f>B142*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <f>Sheet1!A143</f>
+        <v/>
+      </c>
+      <c r="B143">
+        <f>Sheet1!B143*2</f>
+        <v/>
+      </c>
+      <c r="C143">
+        <f>B143*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <f>Sheet1!A144</f>
+        <v/>
+      </c>
+      <c r="B144">
+        <f>Sheet1!B144*2</f>
+        <v/>
+      </c>
+      <c r="C144">
+        <f>B144*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <f>Sheet1!A145</f>
+        <v/>
+      </c>
+      <c r="B145">
+        <f>Sheet1!B145*2</f>
+        <v/>
+      </c>
+      <c r="C145">
+        <f>B145*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <f>Sheet1!A146</f>
+        <v/>
+      </c>
+      <c r="B146">
+        <f>Sheet1!B146*2</f>
+        <v/>
+      </c>
+      <c r="C146">
+        <f>B146*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <f>Sheet1!A147</f>
+        <v/>
+      </c>
+      <c r="B147">
+        <f>Sheet1!B147*2</f>
+        <v/>
+      </c>
+      <c r="C147">
+        <f>B147*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <f>Sheet1!A148</f>
+        <v/>
+      </c>
+      <c r="B148">
+        <f>Sheet1!B148*2</f>
+        <v/>
+      </c>
+      <c r="C148">
+        <f>B148*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <f>Sheet1!A149</f>
+        <v/>
+      </c>
+      <c r="B149">
+        <f>Sheet1!B149*2</f>
+        <v/>
+      </c>
+      <c r="C149">
+        <f>B149*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <f>Sheet1!A150</f>
+        <v/>
+      </c>
+      <c r="B150">
+        <f>Sheet1!B150*2</f>
+        <v/>
+      </c>
+      <c r="C150">
+        <f>B150*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <f>Sheet1!A151</f>
+        <v/>
+      </c>
+      <c r="B151">
+        <f>Sheet1!B151*2</f>
+        <v/>
+      </c>
+      <c r="C151">
+        <f>B151*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <f>Sheet1!A152</f>
+        <v/>
+      </c>
+      <c r="B152">
+        <f>Sheet1!B152*2</f>
+        <v/>
+      </c>
+      <c r="C152">
+        <f>B152*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <f>Sheet1!A153</f>
+        <v/>
+      </c>
+      <c r="B153">
+        <f>Sheet1!B153*2</f>
+        <v/>
+      </c>
+      <c r="C153">
+        <f>B153*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <f>Sheet1!A154</f>
+        <v/>
+      </c>
+      <c r="B154">
+        <f>Sheet1!B154*2</f>
+        <v/>
+      </c>
+      <c r="C154">
+        <f>B154*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <f>Sheet1!A155</f>
+        <v/>
+      </c>
+      <c r="B155">
+        <f>Sheet1!B155*2</f>
+        <v/>
+      </c>
+      <c r="C155">
+        <f>B155*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <f>Sheet1!A156</f>
+        <v/>
+      </c>
+      <c r="B156">
+        <f>Sheet1!B156*2</f>
+        <v/>
+      </c>
+      <c r="C156">
+        <f>B156*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <f>Sheet1!A157</f>
+        <v/>
+      </c>
+      <c r="B157">
+        <f>Sheet1!B157*2</f>
+        <v/>
+      </c>
+      <c r="C157">
+        <f>B157*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <f>Sheet1!A158</f>
+        <v/>
+      </c>
+      <c r="B158">
+        <f>Sheet1!B158*2</f>
+        <v/>
+      </c>
+      <c r="C158">
+        <f>B158*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <f>Sheet1!A159</f>
+        <v/>
+      </c>
+      <c r="B159">
+        <f>Sheet1!B159*2</f>
+        <v/>
+      </c>
+      <c r="C159">
+        <f>B159*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <f>Sheet1!A160</f>
+        <v/>
+      </c>
+      <c r="B160">
+        <f>Sheet1!B160*2</f>
+        <v/>
+      </c>
+      <c r="C160">
+        <f>B160*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <f>Sheet1!A161</f>
+        <v/>
+      </c>
+      <c r="B161">
+        <f>Sheet1!B161*2</f>
+        <v/>
+      </c>
+      <c r="C161">
+        <f>B161*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <f>Sheet1!A162</f>
+        <v/>
+      </c>
+      <c r="B162">
+        <f>Sheet1!B162*2</f>
+        <v/>
+      </c>
+      <c r="C162">
+        <f>B162*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <f>Sheet1!A163</f>
+        <v/>
+      </c>
+      <c r="B163">
+        <f>Sheet1!B163*2</f>
+        <v/>
+      </c>
+      <c r="C163">
+        <f>B163*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <f>Sheet1!A164</f>
+        <v/>
+      </c>
+      <c r="B164">
+        <f>Sheet1!B164*2</f>
+        <v/>
+      </c>
+      <c r="C164">
+        <f>B164*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <f>Sheet1!A165</f>
+        <v/>
+      </c>
+      <c r="B165">
+        <f>Sheet1!B165*2</f>
+        <v/>
+      </c>
+      <c r="C165">
+        <f>B165*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <f>Sheet1!A166</f>
+        <v/>
+      </c>
+      <c r="B166">
+        <f>Sheet1!B166*2</f>
+        <v/>
+      </c>
+      <c r="C166">
+        <f>B166*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <f>Sheet1!A167</f>
+        <v/>
+      </c>
+      <c r="B167">
+        <f>Sheet1!B167*2</f>
+        <v/>
+      </c>
+      <c r="C167">
+        <f>B167*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <f>Sheet1!A168</f>
+        <v/>
+      </c>
+      <c r="B168">
+        <f>Sheet1!B168*2</f>
+        <v/>
+      </c>
+      <c r="C168">
+        <f>B168*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <f>Sheet1!A169</f>
+        <v/>
+      </c>
+      <c r="B169">
+        <f>Sheet1!B169*2</f>
+        <v/>
+      </c>
+      <c r="C169">
+        <f>B169*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <f>Sheet1!A170</f>
+        <v/>
+      </c>
+      <c r="B170">
+        <f>Sheet1!B170*2</f>
+        <v/>
+      </c>
+      <c r="C170">
+        <f>B170*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <f>Sheet1!A171</f>
+        <v/>
+      </c>
+      <c r="B171">
+        <f>Sheet1!B171*2</f>
+        <v/>
+      </c>
+      <c r="C171">
+        <f>B171*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <f>Sheet1!A172</f>
+        <v/>
+      </c>
+      <c r="B172">
+        <f>Sheet1!B172*2</f>
+        <v/>
+      </c>
+      <c r="C172">
+        <f>B172*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <f>Sheet1!A173</f>
+        <v/>
+      </c>
+      <c r="B173">
+        <f>Sheet1!B173*2</f>
+        <v/>
+      </c>
+      <c r="C173">
+        <f>B173*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <f>Sheet1!A174</f>
+        <v/>
+      </c>
+      <c r="B174">
+        <f>Sheet1!B174*2</f>
+        <v/>
+      </c>
+      <c r="C174">
+        <f>B174*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <f>Sheet1!A175</f>
+        <v/>
+      </c>
+      <c r="B175">
+        <f>Sheet1!B175*2</f>
+        <v/>
+      </c>
+      <c r="C175">
+        <f>B175*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <f>Sheet1!A176</f>
+        <v/>
+      </c>
+      <c r="B176">
+        <f>Sheet1!B176*2</f>
+        <v/>
+      </c>
+      <c r="C176">
+        <f>B176*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <f>Sheet1!A177</f>
+        <v/>
+      </c>
+      <c r="B177">
+        <f>Sheet1!B177*2</f>
+        <v/>
+      </c>
+      <c r="C177">
+        <f>B177*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <f>Sheet1!A178</f>
+        <v/>
+      </c>
+      <c r="B178">
+        <f>Sheet1!B178*2</f>
+        <v/>
+      </c>
+      <c r="C178">
+        <f>B178*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <f>Sheet1!A179</f>
+        <v/>
+      </c>
+      <c r="B179">
+        <f>Sheet1!B179*2</f>
+        <v/>
+      </c>
+      <c r="C179">
+        <f>B179*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <f>Sheet1!A180</f>
+        <v/>
+      </c>
+      <c r="B180">
+        <f>Sheet1!B180*2</f>
+        <v/>
+      </c>
+      <c r="C180">
+        <f>B180*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <f>Sheet1!A181</f>
+        <v/>
+      </c>
+      <c r="B181">
+        <f>Sheet1!B181*2</f>
+        <v/>
+      </c>
+      <c r="C181">
+        <f>B181*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <f>Sheet1!A182</f>
+        <v/>
+      </c>
+      <c r="B182">
+        <f>Sheet1!B182*2</f>
+        <v/>
+      </c>
+      <c r="C182">
+        <f>B182*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <f>Sheet1!A183</f>
+        <v/>
+      </c>
+      <c r="B183">
+        <f>Sheet1!B183*2</f>
+        <v/>
+      </c>
+      <c r="C183">
+        <f>B183*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <f>Sheet1!A184</f>
+        <v/>
+      </c>
+      <c r="B184">
+        <f>Sheet1!B184*2</f>
+        <v/>
+      </c>
+      <c r="C184">
+        <f>B184*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <f>Sheet1!A185</f>
+        <v/>
+      </c>
+      <c r="B185">
+        <f>Sheet1!B185*2</f>
+        <v/>
+      </c>
+      <c r="C185">
+        <f>B185*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <f>Sheet1!A186</f>
+        <v/>
+      </c>
+      <c r="B186">
+        <f>Sheet1!B186*2</f>
+        <v/>
+      </c>
+      <c r="C186">
+        <f>B186*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <f>Sheet1!A187</f>
+        <v/>
+      </c>
+      <c r="B187">
+        <f>Sheet1!B187*2</f>
+        <v/>
+      </c>
+      <c r="C187">
+        <f>B187*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <f>Sheet1!A188</f>
+        <v/>
+      </c>
+      <c r="B188">
+        <f>Sheet1!B188*2</f>
+        <v/>
+      </c>
+      <c r="C188">
+        <f>B188*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <f>Sheet1!A189</f>
+        <v/>
+      </c>
+      <c r="B189">
+        <f>Sheet1!B189*2</f>
+        <v/>
+      </c>
+      <c r="C189">
+        <f>B189*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <f>Sheet1!A190</f>
+        <v/>
+      </c>
+      <c r="B190">
+        <f>Sheet1!B190*2</f>
+        <v/>
+      </c>
+      <c r="C190">
+        <f>B190*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <f>Sheet1!A191</f>
+        <v/>
+      </c>
+      <c r="B191">
+        <f>Sheet1!B191*2</f>
+        <v/>
+      </c>
+      <c r="C191">
+        <f>B191*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <f>Sheet1!A192</f>
+        <v/>
+      </c>
+      <c r="B192">
+        <f>Sheet1!B192*2</f>
+        <v/>
+      </c>
+      <c r="C192">
+        <f>B192*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <f>Sheet1!A193</f>
+        <v/>
+      </c>
+      <c r="B193">
+        <f>Sheet1!B193*2</f>
+        <v/>
+      </c>
+      <c r="C193">
+        <f>B193*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <f>Sheet1!A194</f>
+        <v/>
+      </c>
+      <c r="B194">
+        <f>Sheet1!B194*2</f>
+        <v/>
+      </c>
+      <c r="C194">
+        <f>B194*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <f>Sheet1!A195</f>
+        <v/>
+      </c>
+      <c r="B195">
+        <f>Sheet1!B195*2</f>
+        <v/>
+      </c>
+      <c r="C195">
+        <f>B195*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <f>Sheet1!A196</f>
+        <v/>
+      </c>
+      <c r="B196">
+        <f>Sheet1!B196*2</f>
+        <v/>
+      </c>
+      <c r="C196">
+        <f>B196*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <f>Sheet1!A197</f>
+        <v/>
+      </c>
+      <c r="B197">
+        <f>Sheet1!B197*2</f>
+        <v/>
+      </c>
+      <c r="C197">
+        <f>B197*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <f>Sheet1!A198</f>
+        <v/>
+      </c>
+      <c r="B198">
+        <f>Sheet1!B198*2</f>
+        <v/>
+      </c>
+      <c r="C198">
+        <f>B198*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <f>Sheet1!A199</f>
+        <v/>
+      </c>
+      <c r="B199">
+        <f>Sheet1!B199*2</f>
+        <v/>
+      </c>
+      <c r="C199">
+        <f>B199*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <f>Sheet1!A200</f>
+        <v/>
+      </c>
+      <c r="B200">
+        <f>Sheet1!B200*2</f>
+        <v/>
+      </c>
+      <c r="C200">
+        <f>B200*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <f>Sheet1!A201</f>
+        <v/>
+      </c>
+      <c r="B201">
+        <f>Sheet1!B201*2</f>
+        <v/>
+      </c>
+      <c r="C201">
+        <f>B201*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <f>Sheet1!A202</f>
+        <v/>
+      </c>
+      <c r="B202">
+        <f>Sheet1!B202*2</f>
+        <v/>
+      </c>
+      <c r="C202">
+        <f>B202*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <f>Sheet1!A203</f>
+        <v/>
+      </c>
+      <c r="B203">
+        <f>Sheet1!B203*2</f>
+        <v/>
+      </c>
+      <c r="C203">
+        <f>B203*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <f>Sheet1!A204</f>
+        <v/>
+      </c>
+      <c r="B204">
+        <f>Sheet1!B204*2</f>
+        <v/>
+      </c>
+      <c r="C204">
+        <f>B204*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <f>Sheet1!A205</f>
+        <v/>
+      </c>
+      <c r="B205">
+        <f>Sheet1!B205*2</f>
+        <v/>
+      </c>
+      <c r="C205">
+        <f>B205*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <f>Sheet1!A206</f>
+        <v/>
+      </c>
+      <c r="B206">
+        <f>Sheet1!B206*2</f>
+        <v/>
+      </c>
+      <c r="C206">
+        <f>B206*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <f>Sheet1!A207</f>
+        <v/>
+      </c>
+      <c r="B207">
+        <f>Sheet1!B207*2</f>
+        <v/>
+      </c>
+      <c r="C207">
+        <f>B207*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <f>Sheet1!A208</f>
+        <v/>
+      </c>
+      <c r="B208">
+        <f>Sheet1!B208*2</f>
+        <v/>
+      </c>
+      <c r="C208">
+        <f>B208*10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <f>Sheet1!A209</f>
+        <v/>
+      </c>
+      <c r="B209">
+        <f>Sheet1!B209*2</f>
+        <v/>
+      </c>
+      <c r="C209">
+        <f>B209*10</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/people.xlsx
+++ b/people.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -57,11 +56,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +445,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="30.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="16.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
@@ -455,7 +453,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name  (unique)</t>
+          <t>Name [warn]</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -738,7 +736,7 @@
           <t>Employed</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>45689</v>
       </c>
     </row>
@@ -1725,6 +1723,191 @@
       </c>
       <c r="E63" s="2" t="n">
         <v>45871</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>cindy lim2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>jlkasdf</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025/1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25/1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/people.xlsx
+++ b/people.xlsx
@@ -443,7 +443,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.42578125" bestFit="1" customWidth="1" min="3" max="3"/>

--- a/people.xlsx
+++ b/people.xlsx
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -56,10 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,13 +439,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
@@ -1864,22 +1866,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25/1/1</t>
         </is>
       </c>
     </row>
@@ -1891,23 +1893,123 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>jane doe</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1</t>
         </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>12</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>afds</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>45658</v>
       </c>
     </row>
   </sheetData>

--- a/people.xlsx
+++ b/people.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,6 +761,9 @@
           <t>Employed</t>
         </is>
       </c>
+      <c r="E15" s="3" t="n">
+        <v>45658</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2009,6 +2012,26 @@
         </is>
       </c>
       <c r="E74" s="3" t="n">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>patrick</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>aadsf</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="n">
         <v>45658</v>
       </c>
     </row>
